--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntng1-Lrrc4c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Ntng1</t>
   </si>
   <si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01707366666666667</v>
+        <v>0.015642</v>
       </c>
       <c r="H2">
-        <v>0.051221</v>
+        <v>0.046926</v>
       </c>
       <c r="I2">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617744</v>
       </c>
       <c r="J2">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617747</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03537</v>
+        <v>0.1854593333333333</v>
       </c>
       <c r="N2">
-        <v>0.10611</v>
+        <v>0.556378</v>
       </c>
       <c r="O2">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="P2">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="Q2">
-        <v>0.00060389559</v>
+        <v>0.002900954892</v>
       </c>
       <c r="R2">
-        <v>0.00543506031</v>
+        <v>0.026108594028</v>
       </c>
       <c r="S2">
-        <v>0.001462438224715267</v>
+        <v>0.0188493892713816</v>
       </c>
       <c r="T2">
-        <v>0.001462438224715267</v>
+        <v>0.01884938927138161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01707366666666667</v>
+        <v>0.015642</v>
       </c>
       <c r="H3">
-        <v>0.051221</v>
+        <v>0.046926</v>
       </c>
       <c r="I3">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617744</v>
       </c>
       <c r="J3">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617747</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +626,22 @@
         <v>0.460535</v>
       </c>
       <c r="O3">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="P3">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="Q3">
-        <v>0.002621007026111111</v>
+        <v>0.00240122949</v>
       </c>
       <c r="R3">
-        <v>0.023589063235</v>
+        <v>0.02161106541</v>
       </c>
       <c r="S3">
-        <v>0.006347224463474185</v>
+        <v>0.01560234856176147</v>
       </c>
       <c r="T3">
-        <v>0.006347224463474185</v>
+        <v>0.01560234856176148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01707366666666667</v>
+        <v>0.015642</v>
       </c>
       <c r="H4">
-        <v>0.051221</v>
+        <v>0.046926</v>
       </c>
       <c r="I4">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617744</v>
       </c>
       <c r="J4">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617747</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.055812</v>
+        <v>0.0009266666666666667</v>
       </c>
       <c r="N4">
-        <v>0.167436</v>
+        <v>0.00278</v>
       </c>
       <c r="O4">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="P4">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="Q4">
-        <v>0.0009529154840000001</v>
+        <v>1.449492E-05</v>
       </c>
       <c r="R4">
-        <v>0.008576239356</v>
+        <v>0.00013045428</v>
       </c>
       <c r="S4">
-        <v>0.002307650613452319</v>
+        <v>9.418291552584905E-05</v>
       </c>
       <c r="T4">
-        <v>0.002307650613452319</v>
+        <v>9.418291552584908E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01707366666666667</v>
+        <v>0.015642</v>
       </c>
       <c r="H5">
-        <v>0.051221</v>
+        <v>0.046926</v>
       </c>
       <c r="I5">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617744</v>
       </c>
       <c r="J5">
-        <v>0.03481970177460088</v>
+        <v>0.08667416564617747</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5974430000000001</v>
+        <v>0.5128903333333333</v>
       </c>
       <c r="N5">
-        <v>1.792329</v>
+        <v>1.538671</v>
       </c>
       <c r="O5">
-        <v>0.7094371064079069</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="P5">
-        <v>0.7094371064079068</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="Q5">
-        <v>0.01020054263433333</v>
+        <v>0.008022630594</v>
       </c>
       <c r="R5">
-        <v>0.091804883709</v>
+        <v>0.072203675346</v>
       </c>
       <c r="S5">
-        <v>0.02470238847295911</v>
+        <v>0.05212824489750852</v>
       </c>
       <c r="T5">
-        <v>0.0247023884729591</v>
+        <v>0.05212824489750854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +782,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.4657886666666667</v>
+        <v>0.002436333333333333</v>
       </c>
       <c r="H6">
-        <v>1.397366</v>
+        <v>0.007309</v>
       </c>
       <c r="I6">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="J6">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03537</v>
+        <v>0.1854593333333333</v>
       </c>
       <c r="N6">
-        <v>0.10611</v>
+        <v>0.556378</v>
       </c>
       <c r="O6">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="P6">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="Q6">
-        <v>0.01647494514</v>
+        <v>0.0004518407557777778</v>
       </c>
       <c r="R6">
-        <v>0.14827450626</v>
+        <v>0.004066566802000001</v>
       </c>
       <c r="S6">
-        <v>0.03989694563396799</v>
+        <v>0.002935903042759411</v>
       </c>
       <c r="T6">
-        <v>0.03989694563396799</v>
+        <v>0.002935903042759412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +844,22 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.4657886666666667</v>
+        <v>0.002436333333333333</v>
       </c>
       <c r="H7">
-        <v>1.397366</v>
+        <v>0.007309</v>
       </c>
       <c r="I7">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="J7">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -877,22 +874,22 @@
         <v>0.460535</v>
       </c>
       <c r="O7">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="P7">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="Q7">
-        <v>0.07150399453444446</v>
+        <v>0.0003740055905555556</v>
       </c>
       <c r="R7">
-        <v>0.64353595081</v>
+        <v>0.003366050315</v>
       </c>
       <c r="S7">
-        <v>0.173159361582692</v>
+        <v>0.00243015738903624</v>
       </c>
       <c r="T7">
-        <v>0.173159361582692</v>
+        <v>0.002430157389036241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4657886666666667</v>
+        <v>0.002436333333333333</v>
       </c>
       <c r="H8">
-        <v>1.397366</v>
+        <v>0.007309</v>
       </c>
       <c r="I8">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="J8">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.055812</v>
+        <v>0.0009266666666666667</v>
       </c>
       <c r="N8">
-        <v>0.167436</v>
+        <v>0.00278</v>
       </c>
       <c r="O8">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="P8">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="Q8">
-        <v>0.025996597064</v>
+        <v>2.257668888888889E-06</v>
       </c>
       <c r="R8">
-        <v>0.233969373576</v>
+        <v>2.031902E-05</v>
       </c>
       <c r="S8">
-        <v>0.06295528215219173</v>
+        <v>1.466954203593809E-05</v>
       </c>
       <c r="T8">
-        <v>0.06295528215219173</v>
+        <v>1.466954203593809E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.4657886666666667</v>
+        <v>0.002436333333333333</v>
       </c>
       <c r="H9">
-        <v>1.397366</v>
+        <v>0.007309</v>
       </c>
       <c r="I9">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="J9">
-        <v>0.9499202942146177</v>
+        <v>0.01350001015871609</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5974430000000001</v>
+        <v>0.5128903333333333</v>
       </c>
       <c r="N9">
-        <v>1.792329</v>
+        <v>1.538671</v>
       </c>
       <c r="O9">
-        <v>0.7094371064079069</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="P9">
-        <v>0.7094371064079068</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="Q9">
-        <v>0.2782821783793334</v>
+        <v>0.001249571815444444</v>
       </c>
       <c r="R9">
-        <v>2.504539605414</v>
+        <v>0.011246146339</v>
       </c>
       <c r="S9">
-        <v>0.6739087048457659</v>
+        <v>0.008119280184884496</v>
       </c>
       <c r="T9">
-        <v>0.6739087048457658</v>
+        <v>0.008119280184884496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1030,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.006801333333333334</v>
+        <v>0.1602236666666667</v>
       </c>
       <c r="H10">
-        <v>0.020404</v>
+        <v>0.480671</v>
       </c>
       <c r="I10">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813955</v>
       </c>
       <c r="J10">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813956</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.03537</v>
+        <v>0.1854593333333333</v>
       </c>
       <c r="N10">
-        <v>0.10611</v>
+        <v>0.556378</v>
       </c>
       <c r="O10">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="P10">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="Q10">
-        <v>0.00024056316</v>
+        <v>0.02971497440422223</v>
       </c>
       <c r="R10">
-        <v>0.00216506844</v>
+        <v>0.267434769638</v>
       </c>
       <c r="S10">
-        <v>0.0005825655402489275</v>
+        <v>0.1930775005426472</v>
       </c>
       <c r="T10">
-        <v>0.0005825655402489275</v>
+        <v>0.1930775005426473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1092,22 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.006801333333333334</v>
+        <v>0.1602236666666667</v>
       </c>
       <c r="H11">
-        <v>0.020404</v>
+        <v>0.480671</v>
       </c>
       <c r="I11">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813955</v>
       </c>
       <c r="J11">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813956</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1125,22 +1122,22 @@
         <v>0.460535</v>
       </c>
       <c r="O11">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="P11">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="Q11">
-        <v>0.001044084015555556</v>
+        <v>0.02459620210944445</v>
       </c>
       <c r="R11">
-        <v>0.009396756140000002</v>
+        <v>0.221365818985</v>
       </c>
       <c r="S11">
-        <v>0.002528431072269719</v>
+        <v>0.159817510240175</v>
       </c>
       <c r="T11">
-        <v>0.002528431072269719</v>
+        <v>0.159817510240175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.006801333333333334</v>
+        <v>0.1602236666666667</v>
       </c>
       <c r="H12">
-        <v>0.020404</v>
+        <v>0.480671</v>
       </c>
       <c r="I12">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813955</v>
       </c>
       <c r="J12">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813956</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.055812</v>
+        <v>0.0009266666666666667</v>
       </c>
       <c r="N12">
-        <v>0.167436</v>
+        <v>0.00278</v>
       </c>
       <c r="O12">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="P12">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="Q12">
-        <v>0.000379596016</v>
+        <v>0.0001484739311111111</v>
       </c>
       <c r="R12">
-        <v>0.003416364144</v>
+        <v>0.00133626538</v>
       </c>
       <c r="S12">
-        <v>0.0009192577871748132</v>
+        <v>0.0009647316240192088</v>
       </c>
       <c r="T12">
-        <v>0.0009192577871748132</v>
+        <v>0.0009647316240192089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1213,25 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.006801333333333334</v>
+        <v>0.1602236666666667</v>
       </c>
       <c r="H13">
-        <v>0.020404</v>
+        <v>0.480671</v>
       </c>
       <c r="I13">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813955</v>
       </c>
       <c r="J13">
-        <v>0.0138705061402346</v>
+        <v>0.8878182217813956</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5974430000000001</v>
+        <v>0.5128903333333333</v>
       </c>
       <c r="N13">
-        <v>1.792329</v>
+        <v>1.538671</v>
       </c>
       <c r="O13">
-        <v>0.7094371064079069</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="P13">
-        <v>0.7094371064079068</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="Q13">
-        <v>0.004063408990666667</v>
+        <v>0.08217716980455557</v>
       </c>
       <c r="R13">
-        <v>0.03657068091600001</v>
+        <v>0.739594528241</v>
       </c>
       <c r="S13">
-        <v>0.009840251740541138</v>
+        <v>0.533958479374554</v>
       </c>
       <c r="T13">
-        <v>0.009840251740541137</v>
+        <v>0.5339584793745541</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0006813333333333334</v>
+        <v>0.002167</v>
       </c>
       <c r="H14">
-        <v>0.002044</v>
+        <v>0.006501</v>
       </c>
       <c r="I14">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="J14">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03537</v>
+        <v>0.1854593333333333</v>
       </c>
       <c r="N14">
-        <v>0.10611</v>
+        <v>0.556378</v>
       </c>
       <c r="O14">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="P14">
-        <v>0.04200030873848662</v>
+        <v>0.2174741358149192</v>
       </c>
       <c r="Q14">
-        <v>2.409876E-05</v>
+        <v>0.0004018903753333333</v>
       </c>
       <c r="R14">
-        <v>0.00021688884</v>
+        <v>0.003617013378</v>
       </c>
       <c r="S14">
-        <v>5.835933955444068E-05</v>
+        <v>0.002611342958130925</v>
       </c>
       <c r="T14">
-        <v>5.835933955444068E-05</v>
+        <v>0.002611342958130926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0006813333333333334</v>
+        <v>0.002167</v>
       </c>
       <c r="H15">
-        <v>0.002044</v>
+        <v>0.006501</v>
       </c>
       <c r="I15">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="J15">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1370,22 @@
         <v>0.460535</v>
       </c>
       <c r="O15">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="P15">
-        <v>0.1822883063319097</v>
+        <v>0.1800115229889101</v>
       </c>
       <c r="Q15">
-        <v>0.0001045926155555556</v>
+        <v>0.0003326597816666667</v>
       </c>
       <c r="R15">
-        <v>0.0009413335400000002</v>
+        <v>0.002993938035</v>
       </c>
       <c r="S15">
-        <v>0.0002532892134737946</v>
+        <v>0.002161506797937419</v>
       </c>
       <c r="T15">
-        <v>0.0002532892134737946</v>
+        <v>0.00216150679793742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0006813333333333334</v>
+        <v>0.002167</v>
       </c>
       <c r="H16">
-        <v>0.002044</v>
+        <v>0.006501</v>
       </c>
       <c r="I16">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="J16">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.055812</v>
+        <v>0.0009266666666666667</v>
       </c>
       <c r="N16">
-        <v>0.167436</v>
+        <v>0.00278</v>
       </c>
       <c r="O16">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="P16">
-        <v>0.06627427852169679</v>
+        <v>0.001086631925715027</v>
       </c>
       <c r="Q16">
-        <v>3.8026576E-05</v>
+        <v>2.008086666666667E-06</v>
       </c>
       <c r="R16">
-        <v>0.0003422391840000001</v>
+        <v>1.807278E-05</v>
       </c>
       <c r="S16">
-        <v>9.208796887793169E-05</v>
+        <v>1.304784413403113E-05</v>
       </c>
       <c r="T16">
-        <v>9.208796887793169E-05</v>
+        <v>1.304784413403113E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0006813333333333334</v>
+        <v>0.002167</v>
       </c>
       <c r="H17">
-        <v>0.002044</v>
+        <v>0.006501</v>
       </c>
       <c r="I17">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="J17">
-        <v>0.001389497870546928</v>
+        <v>0.01200760241371094</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5974430000000001</v>
+        <v>0.5128903333333333</v>
       </c>
       <c r="N17">
-        <v>1.792329</v>
+        <v>1.538671</v>
       </c>
       <c r="O17">
-        <v>0.7094371064079069</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="P17">
-        <v>0.7094371064079068</v>
+        <v>0.6014277092704556</v>
       </c>
       <c r="Q17">
-        <v>0.0004070578306666667</v>
+        <v>0.001111433352333333</v>
       </c>
       <c r="R17">
-        <v>0.003663520476000001</v>
+        <v>0.010002900171</v>
       </c>
       <c r="S17">
-        <v>0.0009857613486407609</v>
+        <v>0.007221704813508565</v>
       </c>
       <c r="T17">
-        <v>0.0009857613486407607</v>
+        <v>0.007221704813508567</v>
       </c>
     </row>
   </sheetData>
